--- a/ЗАВОДЫ/ПОКОМ/Краснодар_филиалы/2025/10,25/20,10,25 ПОКОМ КИ Новороссийск/дв 20,10,25 нррсч пок ки от Лыгина.xlsx
+++ b/ЗАВОДЫ/ПОКОМ/Краснодар_филиалы/2025/10,25/20,10,25 ПОКОМ КИ Новороссийск/дв 20,10,25 нррсч пок ки от Лыгина.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\заказы Кркаснодар\20,10,25 ПОКОМ КИ Новороссийск\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\ПОКОМ\Краснодар_филиалы\2025\10,25\20,10,25 ПОКОМ КИ Новороссийск\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8B21B2-7A7B-436A-96AC-7F5F4C69EED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4CFAF2-6CE9-4F59-A97A-6412EDF82B19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$3:$AH$115</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="176">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -591,6 +591,9 @@
   <si>
     <t>21,10,</t>
   </si>
+  <si>
+    <t>23,10,</t>
+  </si>
 </sst>
 </file>
 
@@ -1089,7 +1092,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AI1" sqref="AI1"/>
+      <selection pane="bottomRight" activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1377,7 +1380,7 @@
         <v>24</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="R4" s="10"/>
       <c r="S4" s="10"/>
